--- a/biology/Botanique/Routes_forestières_du_Québec/Routes_forestières_du_Québec.xlsx
+++ b/biology/Botanique/Routes_forestières_du_Québec/Routes_forestières_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Routes_foresti%C3%A8res_du_Qu%C3%A9bec</t>
+          <t>Routes_forestières_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les routes forestières du Québec regroupent les chemins situés en milieu forestier, en grande majorité sur les terres du domaine de l'État.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Routes_foresti%C3%A8res_du_Qu%C3%A9bec</t>
+          <t>Routes_forestières_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Statut et usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les routes forestières du Québec sont utilisées pour des activités économiques et récréatives comme l'aménagement forestier, l'exploitation minière, la chasse, la pêche, la villégiature, le tourisme d'aventure et la cueillette de produits forestiers non ligneux. 
-La construction et l'entretien des routes forestières reposent sur le principe d'utilisateur-payeur, c'est-à-dire que contrairement au reste du réseau routier, elles ne sont pas ou peu financées par l'État. L'industrie forestière est le principal constructeur de ces routes et assume également leur entretien durant la période d'exploitation. Leur nombre est très élevé car elles doivent permettre à l'exploitant d'accéder à tout son territoire de coupe. Néanmoins, une grande partie de ces chemins construits en sable et en gravier disparaît après la période d'exploitation, en raison de leur sous-utilisation. Certaines peuvent être également fermées par l'État. Pour continuer d'exister, les routes délaissées par les exploitants doivent être entretenues de façon autonome par les autres utilisateurs, principalement des organismes gestionnaires de territoires fauniques (comme les zecs) ou des associations de villégiateurs[1]. Les municipalités régionales de comté peuvent obtenir la responsabilité de l'entretien d'une route forestière.
+La construction et l'entretien des routes forestières reposent sur le principe d'utilisateur-payeur, c'est-à-dire que contrairement au reste du réseau routier, elles ne sont pas ou peu financées par l'État. L'industrie forestière est le principal constructeur de ces routes et assume également leur entretien durant la période d'exploitation. Leur nombre est très élevé car elles doivent permettre à l'exploitant d'accéder à tout son territoire de coupe. Néanmoins, une grande partie de ces chemins construits en sable et en gravier disparaît après la période d'exploitation, en raison de leur sous-utilisation. Certaines peuvent être également fermées par l'État. Pour continuer d'exister, les routes délaissées par les exploitants doivent être entretenues de façon autonome par les autres utilisateurs, principalement des organismes gestionnaires de territoires fauniques (comme les zecs) ou des associations de villégiateurs. Les municipalités régionales de comté peuvent obtenir la responsabilité de l'entretien d'une route forestière.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Routes_foresti%C3%A8res_du_Qu%C3%A9bec</t>
+          <t>Routes_forestières_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Puisque ces routes sont situées sur les terres du domaine de l'État, le gouvernement du Québec est l'entité chargée de la réglementation. Contrairement au reste du réseau routier québécois, les routes forestières (désignés officiellement « chemins multiusages »[2]) sont administrées par le Ministère des Forêts, de la Faune et des Parcs plutôt que par le Ministère des Transports. C'est ce ministère qui octroie le droit de construire, d'améliorer ou de fermer un chemin. Les routes forestières les plus importantes sont numérotées par le Ministère (trois ou quatre chiffres précédés d'un R). Elles apparaissent sur la carte routière officielle du Ministère des Transports. En 2013-2014, ce seul réseau comptait 24 300 km[3].
-L'article 328 du Code de la sécurité routière stipule que « nul ne peut conduire un véhicule routier à une vitesse de plus de 70 km/h sur les chemins en gravier »[4]. Le Ministère peut faire augmenter cette vitesse à 90 km/h. Alors que le réseau routier conventionnel emploie le vert, les routes forestières utilisent le bleu pour leur panneau écusson (I-120-F), les panonceaux de direction et les bornes kilométriques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puisque ces routes sont situées sur les terres du domaine de l'État, le gouvernement du Québec est l'entité chargée de la réglementation. Contrairement au reste du réseau routier québécois, les routes forestières (désignés officiellement « chemins multiusages ») sont administrées par le Ministère des Forêts, de la Faune et des Parcs plutôt que par le Ministère des Transports. C'est ce ministère qui octroie le droit de construire, d'améliorer ou de fermer un chemin. Les routes forestières les plus importantes sont numérotées par le Ministère (trois ou quatre chiffres précédés d'un R). Elles apparaissent sur la carte routière officielle du Ministère des Transports. En 2013-2014, ce seul réseau comptait 24 300 km.
+L'article 328 du Code de la sécurité routière stipule que « nul ne peut conduire un véhicule routier à une vitesse de plus de 70 km/h sur les chemins en gravier ». Le Ministère peut faire augmenter cette vitesse à 90 km/h. Alors que le réseau routier conventionnel emploie le vert, les routes forestières utilisent le bleu pour leur panneau écusson (I-120-F), les panonceaux de direction et les bornes kilométriques.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Routes_foresti%C3%A8res_du_Qu%C3%A9bec</t>
+          <t>Routes_forestières_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +591,13 @@
           <t>Liste des routes forestières numérotées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les deux premiers numéros suivants la lettre « R » correspondent au code de la région administrative (deux chiffres variant de 01 à 17). Cela explique les trous dans la numérotation (par exemple, la région urbanisée de Montréal, code 06, ne comporte aucune route forestière). Plusieurs de ces routes possèdent des noms propres alternatifs, désignés par une zec, une association de villégiateurs ou une compagnie forestière, par exemple. Elle peut également porter un numéro alternatif lorsqu'elle traverse le territoire d'une réserve faunique, d'un parc national ou d'une municipalité, comme c'est le cas dans l'agglomération de La Tuque.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux premiers numéros suivants la lettre « R » correspondent au code de la région administrative (deux chiffres variant de 01 à 17). Cela explique les trous dans la numérotation (par exemple, la région urbanisée de Montréal, code 06, ne comporte aucune route forestière). Plusieurs de ces routes possèdent des noms propres alternatifs, désignés par une zec, une association de villégiateurs ou une compagnie forestière, par exemple. Elle peut également porter un numéro alternatif lorsqu'elle traverse le territoire d'une réserve faunique, d'un parc national ou d'une municipalité, comme c'est le cas dans l'agglomération de La Tuque.
 Il arrive souvent qu'une route forestière soit composée de segments routiers différents, d'où l'importance de la numérotation officielle.
-Bas-Saint-Laurent[5]
-Saguenay–Lac-Saint-Jean
-Outaouais
-Côte-Nord
-Mauricie
-Nord-du-Québec
-Laurentides</t>
+</t>
         </is>
       </c>
     </row>
